--- a/公开课/中和应泰筹码峰/六天直播回放连接.xlsx
+++ b/公开课/中和应泰筹码峰/六天直播回放连接.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A521ACC-5F38-4B6B-AF9F-44E77EF582EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98164D-C0B2-488A-BB78-7209ED1D35B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>https://a.ckjr001.com/xgYgWW/n69jr2l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【识别大跌之后的第一波上涨】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://a.ckjr001.com/6bY8WO/gezqq8k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,13 +441,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ABFFC130-ADEB-43B3-8EEC-853BB70784CD}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{BD53F91F-8378-4A02-A58A-F1E07A5B8BC0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C97D0855-190A-4D61-B0FF-EC45D7D6DF35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/公开课/中和应泰筹码峰/六天直播回放连接.xlsx
+++ b/公开课/中和应泰筹码峰/六天直播回放连接.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98164D-C0B2-488A-BB78-7209ED1D35B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47A498A-28F4-478E-9BF3-30EB59E11584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>https://a.ckjr001.com/6bY8WO/gezqq8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://a.ckjr001.com/PvnN73/q95qk5l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【主升选股-避开主力试盘陷阱】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,14 +464,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ABFFC130-ADEB-43B3-8EEC-853BB70784CD}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{BD53F91F-8378-4A02-A58A-F1E07A5B8BC0}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{C97D0855-190A-4D61-B0FF-EC45D7D6DF35}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BB4B44D5-A590-4AC5-827C-B886055F47A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/公开课/中和应泰筹码峰/六天直播回放连接.xlsx
+++ b/公开课/中和应泰筹码峰/六天直播回放连接.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47A498A-28F4-478E-9BF3-30EB59E11584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884F907-FF95-4F8B-A96D-3A6C7391D859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>第四节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【主升选股-避开主力洗盘】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://a.ckjr001.com/6eY1Gq/q95qk5l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -475,6 +487,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -482,8 +505,9 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{BD53F91F-8378-4A02-A58A-F1E07A5B8BC0}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{C97D0855-190A-4D61-B0FF-EC45D7D6DF35}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{BB4B44D5-A590-4AC5-827C-B886055F47A3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{C960F530-E6F2-4CB0-B7EC-6C1A6F149146}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>